--- a/documentation/Testfälle/Testfälle.xlsx
+++ b/documentation/Testfälle/Testfälle.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming\Desktop\Schule\Imst Aufbaulehrgang\Diplomarbeit\Lieferrex\documentation\Testfälle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D11DCF-E937-4311-A21B-2FA160643C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F56B190F-C053-477B-ADA5-B7F23C7861C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mandantendaten ändern" sheetId="2" r:id="rId1"/>
     <sheet name="Bestellung tätigen" sheetId="1" r:id="rId2"/>
     <sheet name="Öffnungszeiten ändern" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,11 +361,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,68 +432,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F75C8-55C9-4EDE-BE87-27014B00FE42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,193 +773,193 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="23"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="6">
         <v>44698</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20">
+      <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="20">
+      <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="26">
+      <c r="C15" s="15">
         <v>4</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="25"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -969,11 +968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506DF914-B359-47DA-91AA-41D428DFE2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,142 +991,142 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="23"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="6">
         <v>44698</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20">
+      <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="20">
+      <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="20">
+      <c r="C15" s="10">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1135,11 +1134,11 @@
       <c r="C16" s="3">
         <v>5</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1147,11 +1146,11 @@
       <c r="C17" s="3">
         <v>6</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1159,11 +1158,11 @@
       <c r="C18" s="3">
         <v>7</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1171,23 +1170,23 @@
       <c r="C19" s="3">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="21">
+      <c r="C20" s="11">
         <v>9</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1217,11 +1216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42EE70-5346-4F1A-9FDB-0EB340A76E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,177 +1239,183 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="23"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="6">
         <v>44698</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20">
+      <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="20">
+      <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="26">
+      <c r="C15" s="15">
         <v>4</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="25"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
@@ -1421,12 +1426,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/Testfälle/Testfälle.xlsx
+++ b/documentation/Testfälle/Testfälle.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming\Desktop\Schule\Imst Aufbaulehrgang\Diplomarbeit\Lieferrex\documentation\Testfälle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Lieferrex\documentation\Testfälle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37CD40A-2F51-4EE4-944A-70CD4E915C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandantendaten ändern" sheetId="2" r:id="rId1"/>
     <sheet name="Bestellung tätigen" sheetId="1" r:id="rId2"/>
     <sheet name="Öffnungszeiten ändern" sheetId="3" r:id="rId3"/>
+    <sheet name="Baukasten" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Nr:</t>
   </si>
@@ -192,12 +186,69 @@
   </si>
   <si>
     <t>Öffnungszeiten an verschiedenen Tagen ändern und zu guter letzt auf speichern klicken. Dazu sollte man bei zwei Tagen die Öffnungszeiten ändern und an einem Tag das Restaurant als geschlossen makieren.</t>
+  </si>
+  <si>
+    <t>Webseite im Baukasten anlegen</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Es soll getestet werden ob, ob Mandanten mithilfe des Baukastenszstems eine Webseite erstellen koennen. Diese muss korrekt in der Datenbank gespeichert werden damit sie anschließend aus der Sicht des Kunden ausgegeben werden kann.</t>
+  </si>
+  <si>
+    <t>BaukastenController, RestaurantController</t>
+  </si>
+  <si>
+    <t>Damit dieser Testfall getestet werden kann, muss sich der Mandant vorher anmelden.</t>
+  </si>
+  <si>
+    <t>Niklas Heim</t>
+  </si>
+  <si>
+    <t>Einloggen mit Email und Passwort als Mandant.</t>
+  </si>
+  <si>
+    <t>Über die Einstellungen den Baukasten öffnen.</t>
+  </si>
+  <si>
+    <t>Leere Baukastenseite öffnet sich.</t>
+  </si>
+  <si>
+    <t>Allgemeine Einstellungen treffen.</t>
+  </si>
+  <si>
+    <t>Allgemeine Einstellungen werden übernommen.</t>
+  </si>
+  <si>
+    <t>Hinzufügen der Module mit entsprechenden Werten.</t>
+  </si>
+  <si>
+    <t>Ausgabe der erstellten Module.</t>
+  </si>
+  <si>
+    <t>Webseite vollständig konfiguriert.</t>
+  </si>
+  <si>
+    <t>Erstellte Webseite wird in der Datenbank gepeichert.</t>
+  </si>
+  <si>
+    <t>Suchen des Restaurant über das Such-Menü.</t>
+  </si>
+  <si>
+    <t>Entsprechendes Restaurant wird ausgegeben.</t>
+  </si>
+  <si>
+    <t>Webseite des Restaurants wird ohne Fehler ausgegeben.</t>
+  </si>
+  <si>
+    <t>Zuvor erstellte Webseite des Restaurants wird angezeigt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -411,6 +462,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,24 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -773,12 +836,12 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -795,39 +858,39 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,21 +908,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
@@ -868,10 +931,10 @@
       <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
@@ -880,10 +943,10 @@
       <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
@@ -892,10 +955,10 @@
       <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -904,46 +967,51 @@
       <c r="C15" s="15">
         <v>4</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C5:C6"/>
@@ -955,11 +1023,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -968,11 +1031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,12 +1054,12 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -1013,39 +1076,39 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,21 +1126,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1086,10 +1149,10 @@
       <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1098,10 +1161,10 @@
       <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1110,10 +1173,10 @@
       <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1122,10 +1185,10 @@
       <c r="C15" s="10">
         <v>4</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1134,10 +1197,10 @@
       <c r="C16" s="3">
         <v>5</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1146,10 +1209,10 @@
       <c r="C17" s="3">
         <v>6</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1158,10 +1221,10 @@
       <c r="C18" s="3">
         <v>7</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
@@ -1170,10 +1233,10 @@
       <c r="C19" s="3">
         <v>8</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="8" t="s">
         <v>25</v>
       </c>
@@ -1182,10 +1245,10 @@
       <c r="C20" s="11">
         <v>9</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="9" t="s">
         <v>26</v>
       </c>
@@ -1216,11 +1279,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,12 +1302,12 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -1261,39 +1324,39 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,21 +1374,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1334,10 +1397,10 @@
       <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
@@ -1346,10 +1409,10 @@
       <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="8" t="s">
         <v>50</v>
       </c>
@@ -1358,10 +1421,10 @@
       <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -1370,52 +1433,46 @@
       <c r="C15" s="15">
         <v>4</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
@@ -1426,9 +1483,249 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <picture r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAD61F-948A-4746-AC6A-036D00FF126D}">
+  <dimension ref="B2:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <v>2</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
+        <v>3</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
+        <v>4</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
+        <v>5</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
+        <v>6</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
+        <v>7</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>8</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>